--- a/config/standard/forms/app/nutrition_screening.xlsx
+++ b/config/standard/forms/app/nutrition_screening.xlsx
@@ -13,35 +13,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="270">
   <si>
     <t>form_title</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>type</t>
+    <t>name</t>
   </si>
   <si>
     <t>form_id</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
+    <t>hint</t>
+  </si>
+  <si>
     <t>style</t>
   </si>
   <si>
-    <t>hint</t>
-  </si>
-  <si>
     <t>relevant</t>
   </si>
   <si>
@@ -63,48 +63,48 @@
     <t>constraint_message</t>
   </si>
   <si>
+    <t>male_female</t>
+  </si>
+  <si>
+    <t>Nutrition screening</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>nutrition_screening</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
-    <t>male_female</t>
-  </si>
-  <si>
-    <t>Nutrition screening</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>inputs</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>no</t>
   </si>
   <si>
     <t>Patient</t>
   </si>
   <si>
-    <t>nutrition_screening</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -132,16 +132,22 @@
     <t>False positive</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
     <t>chronic_malnutrition</t>
   </si>
   <si>
     <t>Chronic malnutrition</t>
   </si>
   <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>user</t>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
   </si>
   <si>
     <t>admission_type</t>
@@ -150,13 +156,16 @@
     <t>new_case</t>
   </si>
   <si>
+    <t>contact</t>
+  </si>
+  <si>
     <t>New case</t>
   </si>
   <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>pages</t>
   </si>
   <si>
     <t>relapse</t>
@@ -165,45 +174,45 @@
     <t>Relapse/Readmission</t>
   </si>
   <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the child's name?</t>
+  </si>
+  <si>
     <t>otp</t>
   </si>
   <si>
+    <t>db-object</t>
+  </si>
+  <si>
     <t>Transfer from Outpatient Therapeutic Programme</t>
   </si>
   <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>What is the child's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
+    <t>Select a person from list</t>
+  </si>
+  <si>
+    <t>Child Name</t>
   </si>
   <si>
     <t>sfp</t>
   </si>
   <si>
-    <t>Select a person from list</t>
-  </si>
-  <si>
     <t>Transfer from Supplementary Feeding Programme</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Child ID</t>
+  </si>
+  <si>
     <t>Transfer from Stabilization Center</t>
   </si>
   <si>
@@ -213,28 +222,31 @@
     <t>Returned defaulter</t>
   </si>
   <si>
-    <t>Child Name</t>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>admission_criteria</t>
   </si>
   <si>
+    <t>end group</t>
+  </si>
+  <si>
     <t>oedema_1_2</t>
   </si>
   <si>
     <t>+ or ++ oedema</t>
   </si>
   <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Child ID</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>child_name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
   </si>
   <si>
     <t>oedema_3</t>
@@ -243,19 +255,13 @@
     <t>+++ oedema</t>
   </si>
   <si>
-    <t>end group</t>
-  </si>
-  <si>
     <t>muac_115</t>
   </si>
   <si>
     <t>MUAC &lt; 11.5 cm</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>child_name</t>
+    <t>../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>muac_115_complications</t>
@@ -264,7 +270,13 @@
     <t>MUAC &lt; 11.5 cm with complications</t>
   </si>
   <si>
-    <t>../inputs/contact/name</t>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>Date of  Birth</t>
+  </si>
+  <si>
+    <t>substr(../inputs/contact/date_of_birth, 0, 10)</t>
   </si>
   <si>
     <t>muac_115_124</t>
@@ -273,18 +285,6 @@
     <t>MUAC to 11.5 cm to 12.4 cm</t>
   </si>
   <si>
-    <t>../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>Date of  Birth</t>
-  </si>
-  <si>
-    <t>substr(../inputs/contact/date_of_birth, 0, 10)</t>
-  </si>
-  <si>
     <t>wfh_-3</t>
   </si>
   <si>
@@ -306,21 +306,21 @@
     <t>wfh_-3_-2</t>
   </si>
   <si>
+    <t>Weight for Height Z score ≥ -3 to &lt; -2</t>
+  </si>
+  <si>
     <t>int(decimal-date-time(today()) - decimal-date-time(date(${dob})))</t>
   </si>
   <si>
-    <t>Weight for Height Z score ≥ -3 to &lt; -2</t>
+    <t>measurements</t>
+  </si>
+  <si>
+    <t>Measurements</t>
   </si>
   <si>
     <t>facility</t>
   </si>
   <si>
-    <t>measurements</t>
-  </si>
-  <si>
-    <t>Measurements</t>
-  </si>
-  <si>
     <t>clinic</t>
   </si>
   <si>
@@ -330,6 +330,9 @@
     <t>other_clinic</t>
   </si>
   <si>
+    <t>Referral to another clinic</t>
+  </si>
+  <si>
     <t>select_one male_female</t>
   </si>
   <si>
@@ -339,7 +342,13 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>Referral to another clinic</t>
+    <t>program</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>Outpatient Therapeutic Program (OTP)</t>
   </si>
   <si>
     <t>decimal</t>
@@ -351,16 +360,25 @@
     <t>Weight (kgs)</t>
   </si>
   <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>OTP</t>
-  </si>
-  <si>
     <t>. &gt;= 0.8 and . &lt;= 68.5</t>
   </si>
   <si>
-    <t>Outpatient Therapeutic Program (OTP)</t>
+    <t>SFP</t>
+  </si>
+  <si>
+    <t>Supplementary Feeding Program (SFP)</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Stabilization Center (SC)</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
   <si>
     <t>Weight should be between 0.8 kg and 68.5 kg</t>
@@ -426,30 +444,12 @@
     <t>HFA: ${hfa}</t>
   </si>
   <si>
-    <t>SFP</t>
-  </si>
-  <si>
     <t>nn3</t>
   </si>
   <si>
-    <t>Supplementary Feeding Program (SFP)</t>
-  </si>
-  <si>
     <t>WFH: ${wfh}</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>Stabilization Center (SC)</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>wfa_message</t>
   </si>
   <si>
@@ -570,7 +570,7 @@
     <t>n_5</t>
   </si>
   <si>
-    <t>Note admission criteria:</t>
+    <t>Note:</t>
   </si>
   <si>
     <t>${program} != ''</t>
@@ -618,12 +618,24 @@
     <t>Target Weight (kg)</t>
   </si>
   <si>
+    <t>${enroll} = 'yes' and ${facility} = 'clinic'</t>
+  </si>
+  <si>
     <t>target_muac</t>
   </si>
   <si>
     <t>Target MUAC (cm)</t>
   </si>
   <si>
+    <t>other_facility</t>
+  </si>
+  <si>
+    <t>Name of facility</t>
+  </si>
+  <si>
+    <t>${facility} = 'other'</t>
+  </si>
+  <si>
     <t>text</t>
   </si>
   <si>
@@ -772,9 +784,6 @@
   </si>
   <si>
     <t>Program: ${program}</t>
-  </si>
-  <si>
-    <t>${enroll} = 'yes' and ${facility} = 'clinic'</t>
   </si>
   <si>
     <t>n_30</t>
@@ -923,20 +932,20 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -951,10 +960,10 @@
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1025,10 +1034,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1046,7 +1055,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -1076,13 +1085,13 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>31</v>
@@ -1125,13 +1134,13 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1157,14 +1166,14 @@
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1191,13 +1200,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1226,22 +1235,22 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1268,14 +1277,14 @@
         <v>33</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -1305,14 +1314,14 @@
         <v>33</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -1342,14 +1351,14 @@
         <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1376,7 +1385,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -1407,7 +1416,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -1441,19 +1450,19 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1478,19 +1487,19 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1515,19 +1524,19 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="17" t="s">
-        <v>89</v>
+      <c r="G15" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="7"/>
@@ -1552,7 +1561,7 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>94</v>
@@ -1564,7 +1573,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
@@ -1589,13 +1598,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5" t="s">
@@ -1626,168 +1635,168 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>116</v>
+        <v>25</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="22"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="22"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="22"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29">
       <c r="A29" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>145</v>
@@ -1821,7 +1830,7 @@
     </row>
     <row r="30">
       <c r="A30" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>147</v>
@@ -1855,7 +1864,7 @@
     </row>
     <row r="31">
       <c r="A31" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>149</v>
@@ -1889,7 +1898,7 @@
     </row>
     <row r="32">
       <c r="A32" s="25" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>151</v>
@@ -1901,13 +1910,13 @@
         <v>153</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32" s="26"/>
     </row>
     <row r="33">
       <c r="A33" s="25" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B33" s="25" t="s">
         <v>154</v>
@@ -1919,12 +1928,12 @@
         <v>156</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="25" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B34" s="25" t="s">
         <v>157</v>
@@ -1936,12 +1945,12 @@
         <v>159</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1972,7 +1981,7 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>160</v>
@@ -2009,19 +2018,19 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="23" t="s">
         <v>163</v>
       </c>
       <c r="F38" s="7"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>164</v>
@@ -2032,11 +2041,11 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="22"/>
+      <c r="K39" s="23"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>166</v>
@@ -2047,11 +2056,11 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="22"/>
+      <c r="K40" s="23"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>168</v>
@@ -2062,7 +2071,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="22"/>
+      <c r="K41" s="23"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
@@ -2071,11 +2080,11 @@
       <c r="B42" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="23" t="s">
         <v>172</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -2092,15 +2101,15 @@
         <v>176</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>43</v>
+      <c r="B44" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>178</v>
@@ -2110,7 +2119,7 @@
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -2139,7 +2148,7 @@
         <v>180</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>181</v>
@@ -2148,7 +2157,7 @@
         <v>179</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -2156,7 +2165,7 @@
         <v>182</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>183</v>
@@ -2166,7 +2175,7 @@
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -2192,7 +2201,7 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>184</v>
@@ -2229,7 +2238,7 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>187</v>
@@ -2268,12 +2277,12 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>192</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -2307,12 +2316,12 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>195</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -2349,7 +2358,7 @@
         <v>197</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>198</v>
@@ -2359,7 +2368,7 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -2385,27 +2394,27 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>200</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="16" t="s">
-        <v>114</v>
+      <c r="J52" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L52" s="18"/>
       <c r="M52" s="7"/>
@@ -2426,16 +2435,16 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>201</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
@@ -2443,10 +2452,10 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L53" s="18"/>
       <c r="M53" s="7"/>
@@ -2466,18 +2475,22 @@
       <c r="AA53" s="7"/>
     </row>
     <row r="54">
-      <c r="A54" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="F54" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -2501,374 +2514,372 @@
       <c r="AA54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="5" t="s">
+      <c r="A55" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31" t="s">
+      <c r="B55" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
+      <c r="C55" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C58" s="32" t="s">
+      <c r="A58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>211</v>
       </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="31"/>
+      <c r="W58" s="31"/>
+      <c r="X58" s="31"/>
+      <c r="Y58" s="31"/>
+      <c r="Z58" s="31"/>
+      <c r="AA58" s="31"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" s="8" t="s">
         <v>213</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E60" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>211</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="32" t="s">
         <v>230</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
-        <v>132</v>
+      <c r="A75" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="7"/>
-      <c r="AA75" s="7"/>
+        <v>247</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
-        <v>132</v>
+      <c r="A76" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>248</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
-        <v>132</v>
+      <c r="A77" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
-      <c r="X77" s="7"/>
-      <c r="Y77" s="7"/>
-      <c r="Z77" s="7"/>
-      <c r="AA77" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
@@ -2896,16 +2907,16 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="D79" s="10" t="s">
         <v>256</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -2933,7 +2944,7 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>257</v>
@@ -2970,16 +2981,16 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C81" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>176</v>
+      <c r="D81" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
@@ -3007,16 +3018,16 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C82" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="C82" s="13" t="s">
         <v>264</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -3044,16 +3055,16 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="28" t="s">
         <v>266</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -3080,35 +3091,72 @@
       <c r="AA83" s="7"/>
     </row>
     <row r="84">
-      <c r="A84" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="34"/>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="34"/>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="34"/>
-      <c r="AA84" s="34"/>
+      <c r="A84" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="34"/>
+      <c r="O85" s="34"/>
+      <c r="P85" s="34"/>
+      <c r="Q85" s="34"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="34"/>
+      <c r="T85" s="34"/>
+      <c r="U85" s="34"/>
+      <c r="V85" s="34"/>
+      <c r="W85" s="34"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="34"/>
+      <c r="Z85" s="34"/>
+      <c r="AA85" s="34"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3133,16 +3181,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3170,10 +3218,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>20</v>
@@ -3181,7 +3229,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -3197,10 +3245,10 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
@@ -3208,10 +3256,10 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>30</v>
@@ -3238,10 +3286,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -3251,68 +3299,68 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
@@ -3346,13 +3394,13 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -3381,13 +3429,13 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -3416,13 +3464,13 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -3451,13 +3499,13 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -3486,13 +3534,13 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -3521,12 +3569,12 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>91</v>
       </c>
       <c r="D23" s="7"/>
@@ -3556,7 +3604,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>92</v>
@@ -3591,13 +3639,13 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>98</v>
+      <c r="C25" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -3631,7 +3679,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>102</v>
@@ -3642,60 +3690,60 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="23"/>
+        <v>111</v>
+      </c>
+      <c r="D30" s="22"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="23"/>
+        <v>117</v>
+      </c>
+      <c r="D31" s="22"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="23"/>
+        <v>119</v>
+      </c>
+      <c r="D32" s="22"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3722,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3755,17 +3803,17 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd HH-MM")</f>
-        <v>2019-03-11 16-49</v>
+        <v>2019-03-14 14-51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/config/standard/forms/app/nutrition_screening.xlsx
+++ b/config/standard/forms/app/nutrition_screening.xlsx
@@ -13,32 +13,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="297">
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
     <t>hint</t>
   </si>
   <si>
@@ -69,6 +69,9 @@
     <t>male_female</t>
   </si>
   <si>
+    <t>Nutrition screening</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
@@ -78,19 +81,22 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Nutrition screening</t>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>yes_no</t>
   </si>
   <si>
     <t>nutrition_screening</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>yes_no</t>
+    <t>Patient</t>
   </si>
   <si>
     <t>yes</t>
@@ -105,10 +111,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>Patient</t>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t>reasons</t>
@@ -117,51 +123,45 @@
     <t>false_positive</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>False positive</t>
   </si>
   <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
     <t>chronic_malnutrition</t>
   </si>
   <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
     <t>Chronic malnutrition</t>
   </si>
   <si>
-    <t>field-list</t>
-  </si>
-  <si>
     <t>status_check</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>pages</t>
   </si>
   <si>
     <t>Nutrition status check</t>
   </si>
   <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
-    <t>pages</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -174,42 +174,45 @@
     <t>new_case</t>
   </si>
   <si>
+    <t>db:person</t>
+  </si>
+  <si>
     <t>New case</t>
   </si>
   <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the child's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
     <t>relapse</t>
   </si>
   <si>
+    <t>Select a person from list</t>
+  </si>
+  <si>
     <t>Relapse/Readmission</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
     <t>otp</t>
   </si>
   <si>
-    <t>What is the child's name?</t>
-  </si>
-  <si>
     <t>Transfer from Outpatient Therapeutic Programme</t>
   </si>
   <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t>Select a person from list</t>
-  </si>
-  <si>
     <t>sfp</t>
   </si>
   <si>
     <t>Transfer from Supplementary Feeding Programme</t>
   </si>
   <si>
+    <t>Child Name</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
@@ -222,18 +225,15 @@
     <t>Returned defaulter</t>
   </si>
   <si>
-    <t>Child Name</t>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Child ID</t>
   </si>
   <si>
     <t>admission_criteria</t>
   </si>
   <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Child ID</t>
-  </si>
-  <si>
     <t>oedema_1_2</t>
   </si>
   <si>
@@ -246,40 +246,52 @@
     <t>Date of Birth</t>
   </si>
   <si>
+    <t>end group</t>
+  </si>
+  <si>
     <t>oedema_3</t>
   </si>
   <si>
     <t>+++ oedema</t>
   </si>
   <si>
-    <t>end group</t>
+    <t>calculate</t>
   </si>
   <si>
     <t>muac_115</t>
   </si>
   <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
     <t>MUAC &lt; 11.5 cm</t>
   </si>
   <si>
+    <t>Patient UUID</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
     <t>muac_115_complications</t>
   </si>
   <si>
     <t>MUAC &lt; 11.5 cm with complications</t>
   </si>
   <si>
+    <t>child_name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
     <t>muac_115_124</t>
   </si>
   <si>
     <t>MUAC to 11.5 cm to 12.4 cm</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>child_name</t>
-  </si>
-  <si>
-    <t>../inputs/contact/name</t>
+    <t>../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>wfh_-3</t>
@@ -288,21 +300,18 @@
     <t>Weight for Height Z score &lt; -3</t>
   </si>
   <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>Date of  Birth</t>
+  </si>
+  <si>
     <t>wfh_-3_complications</t>
   </si>
   <si>
-    <t>../inputs/contact/patient_id</t>
-  </si>
-  <si>
     <t>Weight for Height Z score &lt; -3 with complications</t>
   </si>
   <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>Date of  Birth</t>
-  </si>
-  <si>
     <t>substr(../inputs/contact/date_of_birth, 0, 10)</t>
   </si>
   <si>
@@ -312,12 +321,21 @@
     <t>Weight for Height Z score ≥ -3 to &lt; -2</t>
   </si>
   <si>
+    <t>age_in_days</t>
+  </si>
+  <si>
+    <t>Age in days</t>
+  </si>
+  <si>
     <t>facility</t>
   </si>
   <si>
     <t>clinic</t>
   </si>
   <si>
+    <t>int(decimal-date-time(today()) - decimal-date-time(date(${dob})))</t>
+  </si>
+  <si>
     <t>At your clinic</t>
   </si>
   <si>
@@ -327,22 +345,19 @@
     <t>Referral to another clinic</t>
   </si>
   <si>
-    <t>age_in_days</t>
-  </si>
-  <si>
     <t>program</t>
   </si>
   <si>
-    <t>Age in days</t>
-  </si>
-  <si>
     <t>OTP</t>
   </si>
   <si>
     <t>Outpatient Therapeutic Program (OTP)</t>
   </si>
   <si>
-    <t>int(decimal-date-time(today()) - decimal-date-time(date(${dob})))</t>
+    <t>measurements</t>
+  </si>
+  <si>
+    <t>Measurements</t>
   </si>
   <si>
     <t>SFP</t>
@@ -360,52 +375,64 @@
     <t>wfa_message</t>
   </si>
   <si>
+    <t>select_one male_female</t>
+  </si>
+  <si>
     <t>m1</t>
   </si>
   <si>
-    <t>measurements</t>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
   <si>
     <t>&lt; -3SD [Severely Malnourished]</t>
   </si>
   <si>
-    <t>Measurements</t>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
   <si>
     <t>m2</t>
   </si>
   <si>
+    <t>Weight (kgs)</t>
+  </si>
+  <si>
     <t>-3SD to &lt; -2SD [Moderately Malnourished]</t>
   </si>
   <si>
+    <t>. &gt;= 0.8 and . &lt;= 68.5</t>
+  </si>
+  <si>
     <t>m3</t>
   </si>
   <si>
+    <t>Weight should be between 0.8 kg and 68.5 kg</t>
+  </si>
+  <si>
     <t>-2SD to 2SD [Normal]</t>
   </si>
   <si>
-    <t>select_one male_female</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Gender</t>
+    <t>height</t>
   </si>
   <si>
     <t>m4</t>
   </si>
   <si>
+    <t>Height (cms)</t>
+  </si>
+  <si>
     <t>&gt;2SD [Overweight]</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>Weight (kgs)</t>
+    <t>. &gt;= 45 and . &lt;= 120</t>
+  </si>
+  <si>
+    <t>Height should be between 45 cm and 120 cm</t>
   </si>
   <si>
     <t>m5</t>
@@ -414,34 +441,16 @@
     <t>&gt;3SD [Obese]</t>
   </si>
   <si>
-    <t>. &gt;= 0.8 and . &lt;= 68.5</t>
+    <t>muac</t>
   </si>
   <si>
     <t>wfa_msg</t>
   </si>
   <si>
+    <t>MUAC Measurement</t>
+  </si>
+  <si>
     <t>Ona hii maneno</t>
-  </si>
-  <si>
-    <t>Weight should be between 0.8 kg and 68.5 kg</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>Height (cms)</t>
-  </si>
-  <si>
-    <t>. &gt;= 45 and . &lt;= 120</t>
-  </si>
-  <si>
-    <t>Height should be between 45 cm and 120 cm</t>
-  </si>
-  <si>
-    <t>muac</t>
-  </si>
-  <si>
-    <t>MUAC Measurement</t>
   </si>
   <si>
     <t>${age_in_days} &gt;= 180</t>
@@ -959,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -976,36 +985,39 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1019,11 +1031,11 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1090,13 +1102,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -1144,20 +1156,20 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1184,24 +1196,24 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -1224,18 +1236,18 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1262,12 +1274,12 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="5"/>
@@ -1298,23 +1310,23 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1338,18 +1350,18 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1376,18 +1388,18 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -1413,19 +1425,19 @@
       <c r="AB8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>44</v>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -1452,10 +1464,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1484,10 +1496,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1515,514 +1527,538 @@
       <c r="AB11" s="5"/>
     </row>
     <row r="12">
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="16" t="s">
+      <c r="A13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="16" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>145</v>
+      <c r="K22" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>147</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="A26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
+      <c r="H26" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="23"/>
+      <c r="C30" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="C31" s="8" t="s">
         <v>161</v>
       </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="24"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="23"/>
+      <c r="D36" s="25" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37" s="8" t="s">
         <v>178</v>
       </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>180</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2031,27 +2067,27 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>166</v>
+      <c r="C39" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="9" t="s">
         <v>185</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>186</v>
@@ -2059,42 +2095,42 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="23"/>
+      <c r="D41" s="4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="8" t="s">
         <v>191</v>
       </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>193</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2103,69 +2139,66 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>166</v>
+      <c r="C44" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="G47" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
+      <c r="B48" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>207</v>
@@ -2173,718 +2206,721 @@
       <c r="D48" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="6"/>
+      <c r="G48" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B49" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="27" t="s">
         <v>210</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
+      <c r="G50" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>213</v>
+      <c r="A51" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
+      <c r="D51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="6"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
-      <c r="AA53" s="6"/>
-      <c r="AB53" s="6"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="6"/>
+      <c r="D54" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C55" s="21" t="s">
+      <c r="A55" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="B55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="L55" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-      <c r="AA55" s="6"/>
-      <c r="AB55" s="6"/>
+      <c r="D55" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L56" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="M56" s="19"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-      <c r="AA56" s="6"/>
-      <c r="AB56" s="6"/>
+      <c r="D56" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L56" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M56" s="20"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" s="8" t="s">
+      <c r="A57" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
-      <c r="AA57" s="6"/>
-      <c r="AB57" s="6"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M57" s="20"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="D58" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="6"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="A59" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="B59" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29" t="s">
+      <c r="C59" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="A62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4" t="s">
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30" t="s">
         <v>240</v>
       </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="25" t="s">
         <v>242</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C64" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="C64" s="8" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C65" s="24" t="s">
         <v>246</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="9" t="s">
         <v>248</v>
       </c>
+      <c r="C66" s="25" t="s">
+        <v>249</v>
+      </c>
       <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="F66" s="4"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C67" s="9" t="s">
         <v>250</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" s="9" t="s">
         <v>252</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C69" s="9" t="s">
         <v>254</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C70" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
+      <c r="C70" s="8" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="8" t="s">
         <v>259</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>161</v>
+        <v>261</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D75" s="24" t="s">
+      <c r="D75" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4" t="s">
-        <v>257</v>
+        <v>174</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C78" s="24" t="s">
         <v>263</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>178</v>
+        <v>265</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>180</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -2893,27 +2929,27 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>166</v>
+      <c r="C81" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="9" t="s">
         <v>185</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>186</v>
@@ -2921,52 +2957,52 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4" t="s">
-        <v>257</v>
+        <v>187</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C84" s="24" t="s">
         <v>267</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>191</v>
+        <v>269</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="8" t="s">
         <v>193</v>
       </c>
       <c r="D86" s="4" t="s">
@@ -2975,454 +3011,468 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>166</v>
+      <c r="C87" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C88" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="s">
-        <v>154</v>
+      <c r="A89" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
-      <c r="AA89" s="6"/>
-      <c r="AB89" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="s">
-        <v>154</v>
+      <c r="A90" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C90" s="14" t="s">
         <v>271</v>
       </c>
+      <c r="C90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="s">
-        <v>154</v>
+      <c r="A91" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C91" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
-      <c r="AA91" s="6"/>
-      <c r="AB91" s="6"/>
+      <c r="C91" s="13" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="8" t="s">
-        <v>154</v>
+      <c r="A92" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C92" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="6"/>
-      <c r="AB92" s="6"/>
+      <c r="C92" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="6" t="s">
-        <v>154</v>
+      <c r="A93" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C93" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
-      <c r="AA93" s="6"/>
-      <c r="AB93" s="6"/>
+      <c r="C93" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="s">
-        <v>154</v>
+      <c r="A94" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C94" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="C94" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
+      <c r="D94" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7"/>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="6" t="s">
-        <v>154</v>
+      <c r="A95" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
-      <c r="AA95" s="6"/>
-      <c r="AB95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="8" t="s">
-        <v>86</v>
+      <c r="A96" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="8" t="s">
+      <c r="D96" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
-      <c r="Z96" s="6"/>
-      <c r="AA96" s="6"/>
-      <c r="AB96" s="6"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="s">
-        <v>154</v>
+      <c r="A97" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
-      <c r="AA97" s="6"/>
-      <c r="AB97" s="6"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="6" t="s">
-        <v>154</v>
+      <c r="A98" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C98" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="C98" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
-      <c r="Z98" s="6"/>
-      <c r="AA98" s="6"/>
-      <c r="AB98" s="6"/>
+      <c r="D98" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7"/>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="s">
-        <v>154</v>
+      <c r="A99" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
-      <c r="Y99" s="6"/>
-      <c r="Z99" s="6"/>
-      <c r="AA99" s="6"/>
-      <c r="AB99" s="6"/>
+      <c r="D99" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="31"/>
-      <c r="M100" s="31"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="31"/>
-      <c r="Q100" s="31"/>
-      <c r="R100" s="31"/>
-      <c r="S100" s="31"/>
-      <c r="T100" s="31"/>
-      <c r="U100" s="31"/>
-      <c r="V100" s="31"/>
-      <c r="W100" s="31"/>
-      <c r="X100" s="31"/>
-      <c r="Y100" s="31"/>
-      <c r="Z100" s="31"/>
-      <c r="AA100" s="31"/>
-      <c r="AB100" s="31"/>
+      <c r="A100" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="32"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="32"/>
+      <c r="R101" s="32"/>
+      <c r="S101" s="32"/>
+      <c r="T101" s="32"/>
+      <c r="U101" s="32"/>
+      <c r="V101" s="32"/>
+      <c r="W101" s="32"/>
+      <c r="X101" s="32"/>
+      <c r="Y101" s="32"/>
+      <c r="Z101" s="32"/>
+      <c r="AA101" s="32"/>
+      <c r="AB101" s="32"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3448,13 +3498,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -3488,10 +3538,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -3499,10 +3549,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -3515,10 +3565,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -3526,557 +3576,557 @@
         <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
+      <c r="C12" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>55</v>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>60</v>
+      <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="C16" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
+      <c r="C20" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
+      <c r="C21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
+      <c r="A22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
+      <c r="A23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
+      <c r="A25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
+      <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
     </row>
     <row r="27">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>101</v>
+      <c r="A28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>103</v>
+      <c r="A29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="21"/>
+      <c r="A31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="21"/>
+      <c r="B32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="23"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="21"/>
+      <c r="A33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="23"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4100,16 +4150,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -4136,17 +4186,17 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="10" t="str">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="str">
         <f>TEXT(NOW(), "yyyy-mm-dd HH-MM")</f>
-        <v>2019-03-29 11-10</v>
+        <v>2019-04-08 09-44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
